--- a/data/trans_bre/P16A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>10.32486371297298</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.173782879783999</v>
+        <v>5.173782879783996</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.765476013838786</v>
@@ -649,7 +649,7 @@
         <v>1.344996173982693</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.774322056326174</v>
+        <v>0.7743220563261733</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.239944731168086</v>
+        <v>2.961642271423572</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.0855823142418</v>
+        <v>2.938091342443299</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.783285800920369</v>
+        <v>4.868633592908957</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.417780661054187</v>
+        <v>1.34637856993452</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4647252997102019</v>
+        <v>0.3564991577479534</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2426786213364457</v>
+        <v>0.2238956251336741</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4253489275054255</v>
+        <v>0.415072262871563</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1438950709574603</v>
+        <v>0.1351210650645211</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.14530557699954</v>
+        <v>12.87132673721841</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.09635038240046</v>
+        <v>15.13892605161511</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.80584384843035</v>
+        <v>15.8385093713689</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.56509671216916</v>
+        <v>8.803015969611645</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.061616491219409</v>
+        <v>4.386305233527329</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.028153734802304</v>
+        <v>2.013809935469198</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.990499032159494</v>
+        <v>2.854615665964094</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.868306002713818</v>
+        <v>1.807325050419166</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.881776862082621</v>
+        <v>5.738711567200502</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.608295969010017</v>
+        <v>6.844361405768387</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.660601309986644</v>
+        <v>4.959456159788572</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.688036492387288</v>
+        <v>4.603144309860583</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.122383898867879</v>
+        <v>1.06289014136735</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8408799300852189</v>
+        <v>0.8016327034024334</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5968800035863639</v>
+        <v>0.6379603014699805</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4387681498234439</v>
+        <v>0.443645705106719</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.72668697848926</v>
+        <v>12.49692178375555</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.51603158465169</v>
+        <v>15.24461548846048</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.34664649170535</v>
+        <v>12.33362998127708</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.21703978713156</v>
+        <v>12.44733169602289</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.127775266340025</v>
+        <v>4.90319231388293</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.891908515772976</v>
+        <v>3.860063954693631</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.893124496392308</v>
+        <v>2.914875617494189</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.016777231433491</v>
+        <v>2.084921370450938</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>8.373337623839165</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8.454246277348291</v>
+        <v>8.45424627734829</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7925662784956384</v>
@@ -849,7 +849,7 @@
         <v>2.247566642075515</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8319071907616558</v>
+        <v>0.8319071907616555</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7319732505175099</v>
+        <v>-0.7540623583900871</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07898751325052288</v>
+        <v>0.178511108183178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.363565356522998</v>
+        <v>4.198920106776958</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.894954558753831</v>
+        <v>4.040328187839443</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.249652159651775</v>
+        <v>-0.274480149431981</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.01843197516076051</v>
+        <v>-0.002856632370271526</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8166104907138552</v>
+        <v>0.6361119537598764</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3064231971515644</v>
+        <v>0.3230440535519236</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.482190895504064</v>
+        <v>5.669947967452846</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.751402634884565</v>
+        <v>9.833213669410886</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.54228838184737</v>
+        <v>12.61548420981323</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.59019927117438</v>
+        <v>12.56822139658372</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.245795277502151</v>
+        <v>3.17276593691795</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.562040648245499</v>
+        <v>1.633395862463236</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>5.559303708761342</v>
+        <v>5.56184829032414</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.551479871168897</v>
+        <v>1.625220786196242</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>10.23386182540172</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.991232698607741</v>
+        <v>4.991232698607743</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>2.133299040925498</v>
@@ -949,7 +949,7 @@
         <v>1.741742092050988</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6267271648290943</v>
+        <v>0.6267271648290946</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.469358350897899</v>
+        <v>2.608267197123025</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.429087554554334</v>
+        <v>7.321570684333039</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.640827993685329</v>
+        <v>5.471023414827076</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.77495945384928</v>
+        <v>0.3647163663189084</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4745668075561781</v>
+        <v>0.5188456260304071</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9355499211090783</v>
+        <v>1.002731252486351</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6999513066170668</v>
+        <v>0.590295538181714</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.01241499008261428</v>
+        <v>0.0106979929031743</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.110958591052682</v>
+        <v>8.999763439977949</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.45048698357445</v>
+        <v>16.45170824260854</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.34513775134477</v>
+        <v>14.4067558236753</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.427091081297197</v>
+        <v>9.446081650411752</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5.102021342473007</v>
+        <v>5.470757652231828</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.784972770951306</v>
+        <v>4.935024394875341</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.452584152499377</v>
+        <v>3.293188931885734</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.677574499867013</v>
+        <v>1.678735952325062</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.885043845184779</v>
+        <v>3.326938267500891</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>14.49728737771478</v>
+        <v>14.36850276812209</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.11759872205599</v>
+        <v>0.6669004125506858</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.32226855536914</v>
+        <v>6.66053395606583</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3515808421710072</v>
+        <v>0.2542243370987468</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.716443811478827</v>
+        <v>1.734019168429946</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05734984997911819</v>
+        <v>0.0190304554420147</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.7482465894150482</v>
+        <v>0.8119450511684883</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.73604614288534</v>
+        <v>15.3327314788861</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>28.00008251183387</v>
+        <v>27.58445131847437</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.52467794175242</v>
+        <v>13.95960050929209</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.86470133463463</v>
+        <v>14.61675689377172</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.53750494425306</v>
+        <v>3.287842504000357</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8.92688072796339</v>
+        <v>9.408454516053464</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.069983229337075</v>
+        <v>2.093569430454097</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3.63206913999662</v>
+        <v>3.843349079172692</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>10.56021368517149</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11.47423222265848</v>
+        <v>11.47423222265847</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>2.166273571896565</v>
@@ -1149,7 +1149,7 @@
         <v>1.5701166103576</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.042152052670162</v>
+        <v>1.042152052670161</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.643770953300594</v>
+        <v>1.436771266667601</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.135594531175449</v>
+        <v>2.568939929479245</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.185096574924299</v>
+        <v>5.199341521235461</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7.190549390429372</v>
+        <v>6.831722985441837</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1736273679371273</v>
+        <v>0.2104358397552987</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2655898585346516</v>
+        <v>0.2347337100854524</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5153540299431343</v>
+        <v>0.5367436610532627</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.52596200736329</v>
+        <v>0.5229958532283672</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.767827417022355</v>
+        <v>8.496850262708994</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>13.85188978570896</v>
+        <v>13.07290983439355</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16.064210446111</v>
+        <v>16.75304245911953</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15.85166864766381</v>
+        <v>16.17905735455031</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>7.489426303802255</v>
+        <v>7.661945818021882</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.784059611289265</v>
+        <v>2.434924144640089</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.539265960192846</v>
+        <v>3.879411538160949</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.694879803741666</v>
+        <v>1.802755242327519</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.941107144253404</v>
+        <v>3.792639200763777</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.511529563033814</v>
+        <v>1.503286605798058</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.28665452204887</v>
+        <v>3.039850441621245</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.431788186094203</v>
+        <v>6.124592817353373</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6361188947160545</v>
+        <v>0.5430556228939233</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1652487299354998</v>
+        <v>0.1645238866515607</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.357808219554042</v>
+        <v>0.3264295411434315</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.6035721763470536</v>
+        <v>0.559970173039672</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.18596390667364</v>
+        <v>10.01472178200384</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.142315106789859</v>
+        <v>8.377291388068267</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.23122269300645</v>
+        <v>10.28471351137898</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.96151505977316</v>
+        <v>12.99422604888172</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.889637588836252</v>
+        <v>2.647840606597251</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.473407594004868</v>
+        <v>1.570763387085772</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.792393796705751</v>
+        <v>1.706420624549695</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.804726832654928</v>
+        <v>1.826596905057741</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>10.19005599792712</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10.50222106178778</v>
+        <v>10.50222106178779</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5635524690809476</v>
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.365897371624047</v>
+        <v>1.328502526073653</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>5.180031707230131</v>
+        <v>5.602140377614228</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6.804161795025069</v>
+        <v>7.145034921274393</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.467533652467373</v>
+        <v>7.395871486417067</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1342271704271137</v>
+        <v>0.1292033334456492</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6612521380563826</v>
+        <v>0.7193720425294602</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.03179125740631</v>
+        <v>1.039767489536347</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.6845086438518699</v>
+        <v>0.6564633884230167</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.548822947012155</v>
+        <v>7.921930864280366</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>11.50800263709147</v>
+        <v>11.48403746624132</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13.39447617290865</v>
+        <v>13.15876864271196</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>13.62688948223171</v>
+        <v>13.48895441879321</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.088144320993669</v>
+        <v>1.135178106658566</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.353260181634511</v>
+        <v>2.41869800776575</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.09293422651595</v>
+        <v>3.062639560481458</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.678666922474057</v>
+        <v>1.669504274130232</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>8.921381333323369</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8.817744662300839</v>
+        <v>8.817744662300843</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>1.268962804296511</v>
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.987055860302084</v>
+        <v>4.940478127292662</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>7.409274088596036</v>
+        <v>7.448440019969903</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7.407966029769426</v>
+        <v>7.435762858148405</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.436472306410755</v>
+        <v>7.535684863776313</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8916595422727565</v>
+        <v>0.9124182974502932</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>1.006275807796366</v>
+        <v>1.024902312618714</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>1.05853898444035</v>
+        <v>1.080235980882225</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.7996003587600375</v>
+        <v>0.8031433541270239</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.545783346431077</v>
+        <v>7.573051846059377</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.48717958776006</v>
+        <v>10.43560083564716</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.44457757383213</v>
+        <v>10.55114351176919</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.21954977345263</v>
+        <v>10.22658361393211</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.741492017328536</v>
+        <v>1.707777203923324</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.731816745701888</v>
+        <v>1.773531975133879</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.8067009427539</v>
+        <v>1.871467612182101</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1.289949277442118</v>
+        <v>1.297709027208069</v>
       </c>
     </row>
     <row r="31">
